--- a/Experiments/Measurements/Two Banners Back 2 Back/V Path/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Two Banners Back 2 Back/V Path/Transformed_Coordinates.xlsx
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>167.1989679268419</v>
+        <v>167.1989679268422</v>
       </c>
       <c r="H2" t="n">
-        <v>114.9770366013697</v>
+        <v>114.9770366013698</v>
       </c>
     </row>
     <row r="3">
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>147.2725980578581</v>
+        <v>147.2725980578583</v>
       </c>
       <c r="H3" t="n">
-        <v>111.7509996953141</v>
+        <v>111.7509996953142</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>127.5348365214807</v>
+        <v>127.5348365214809</v>
       </c>
       <c r="H4" t="n">
-        <v>108.5038531859929</v>
+        <v>108.503853185993</v>
       </c>
     </row>
     <row r="5">
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>108.0488423045617</v>
+        <v>108.0488423045618</v>
       </c>
       <c r="H6" t="n">
-        <v>105.0890184918021</v>
+        <v>105.089018491802</v>
       </c>
     </row>
     <row r="7">
@@ -649,10 +649,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>141.6574053195787</v>
+        <v>141.657405319579</v>
       </c>
       <c r="H7" t="n">
-        <v>94.14462148310903</v>
+        <v>94.14462148310909</v>
       </c>
     </row>
     <row r="8">
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>167.1376532526148</v>
+        <v>167.1376532526151</v>
       </c>
       <c r="H8" t="n">
-        <v>114.7935808934574</v>
+        <v>114.7935808934575</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>147.5692063741295</v>
+        <v>147.5692063741297</v>
       </c>
       <c r="H9" t="n">
-        <v>111.4394013074403</v>
+        <v>111.4394013074405</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>94.3064760888789</v>
+        <v>94.30647608887907</v>
       </c>
       <c r="H10" t="n">
-        <v>86.21851601071897</v>
+        <v>86.21851601071911</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>108.2420812685846</v>
+        <v>108.2420812685847</v>
       </c>
       <c r="H11" t="n">
-        <v>104.9041648378045</v>
+        <v>104.9041648378044</v>
       </c>
     </row>
     <row r="12">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>108.0304122651434</v>
+        <v>108.0304122651435</v>
       </c>
       <c r="H12" t="n">
         <v>105.0605456922096</v>
@@ -829,10 +829,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>149.4686511991654</v>
+        <v>149.4686511991657</v>
       </c>
       <c r="H13" t="n">
-        <v>109.9064603363905</v>
+        <v>109.9064603363906</v>
       </c>
     </row>
     <row r="14">
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>131.1647391513337</v>
+        <v>131.1647391513339</v>
       </c>
       <c r="H14" t="n">
-        <v>92.68356793999855</v>
+        <v>92.68356793999862</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>114.3338859146934</v>
+        <v>114.3338859146936</v>
       </c>
       <c r="H15" t="n">
-        <v>88.61993687745888</v>
+        <v>88.61993687745904</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>94.43343008279497</v>
+        <v>94.43343008279514</v>
       </c>
       <c r="H16" t="n">
-        <v>86.12117890204929</v>
+        <v>86.12117890204945</v>
       </c>
     </row>
     <row r="17">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>90.1502490258021</v>
+        <v>90.15024902580217</v>
       </c>
       <c r="H17" t="n">
         <v>101.7901953058703</v>
@@ -979,10 +979,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>69.74336120320719</v>
+        <v>69.74336120320727</v>
       </c>
       <c r="H18" t="n">
-        <v>87.63956622042001</v>
+        <v>87.63956622041994</v>
       </c>
     </row>
     <row r="19">
@@ -1009,10 +1009,10 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>133.5487503469768</v>
+        <v>133.548750346977</v>
       </c>
       <c r="H19" t="n">
-        <v>91.60781442485532</v>
+        <v>91.60781442485539</v>
       </c>
     </row>
     <row r="20">
@@ -1039,10 +1039,10 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>134.1463119757343</v>
+        <v>134.1463119757346</v>
       </c>
       <c r="H20" t="n">
-        <v>91.30524938768585</v>
+        <v>91.3052493876859</v>
       </c>
     </row>
     <row r="21">
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>113.8954163294875</v>
+        <v>113.8954163294877</v>
       </c>
       <c r="H21" t="n">
-        <v>88.96711704249503</v>
+        <v>88.96711704249519</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>94.19314249396025</v>
+        <v>94.19314249396042</v>
       </c>
       <c r="H22" t="n">
-        <v>86.27281410146801</v>
+        <v>86.27281410146817</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>74.350895824905</v>
+        <v>74.35089582490507</v>
       </c>
       <c r="H23" t="n">
-        <v>83.74655353841592</v>
+        <v>83.74655353841584</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>88.9060540208464</v>
+        <v>88.90605402084606</v>
       </c>
       <c r="H24" t="n">
-        <v>85.99687350135414</v>
+        <v>85.99687350135385</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>121.3404794197499</v>
+        <v>121.34047941975</v>
       </c>
       <c r="H25" t="n">
-        <v>92.20600249032825</v>
+        <v>92.2060024903284</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>128.3864007953342</v>
+        <v>128.3864007953343</v>
       </c>
       <c r="H26" t="n">
-        <v>121.4410271630957</v>
+        <v>121.4410271630959</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>111.589521684751</v>
+        <v>111.5895216847512</v>
       </c>
       <c r="H29" t="n">
-        <v>91.06163930043606</v>
+        <v>91.06163930043621</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>120.294273044236</v>
+        <v>120.2942730442362</v>
       </c>
       <c r="H30" t="n">
-        <v>105.5912431009563</v>
+        <v>105.5912431009564</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>157.2529770760477</v>
+        <v>157.2529770760478</v>
       </c>
       <c r="H31" t="n">
-        <v>113.1369860532736</v>
+        <v>113.1369860532737</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>122.1095204649365</v>
+        <v>122.1095204649362</v>
       </c>
       <c r="H33" t="n">
-        <v>107.9150125030142</v>
+        <v>107.9150125030139</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>89.50311647460239</v>
+        <v>89.50311647460205</v>
       </c>
       <c r="H34" t="n">
-        <v>85.42747913211937</v>
+        <v>85.42747913211907</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>124.3118932304715</v>
+        <v>124.3118932304716</v>
       </c>
       <c r="H36" t="n">
-        <v>89.83113656959203</v>
+        <v>89.83113656959218</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>105.2758144387347</v>
+        <v>105.2758144387344</v>
       </c>
       <c r="H37" t="n">
-        <v>103.7086691671598</v>
+        <v>103.7086691671595</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>137.7456195125262</v>
+        <v>137.7456195125264</v>
       </c>
       <c r="H39" t="n">
-        <v>109.849643365393</v>
+        <v>109.8496433653932</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>99.37076313022254</v>
+        <v>99.37076313022246</v>
       </c>
       <c r="H40" t="n">
-        <v>86.79643678722923</v>
+        <v>86.796436787229</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>136.9779447943434</v>
+        <v>136.9779447943435</v>
       </c>
       <c r="H42" t="n">
-        <v>110.0942605577178</v>
+        <v>110.094260557718</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>89.50420734268732</v>
+        <v>89.50420734268698</v>
       </c>
       <c r="H44" t="n">
-        <v>85.46607666376116</v>
+        <v>85.46607666376086</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>103.9553112326262</v>
+        <v>103.9553112326263</v>
       </c>
       <c r="H47" t="n">
-        <v>87.73293630904728</v>
+        <v>87.73293630904743</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>157.6325737495756</v>
+        <v>157.6325737495758</v>
       </c>
       <c r="H49" t="n">
-        <v>112.9897800780518</v>
+        <v>112.989780078052</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>89.03161133124659</v>
+        <v>89.03161133124625</v>
       </c>
       <c r="H50" t="n">
-        <v>85.96284262274776</v>
+        <v>85.96284262274746</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>114.502619575962</v>
+        <v>114.5026195759622</v>
       </c>
       <c r="H51" t="n">
-        <v>88.48398203210833</v>
+        <v>88.48398203210847</v>
       </c>
     </row>
     <row r="52">
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>174.3558885794942</v>
+        <v>174.3558885794941</v>
       </c>
       <c r="H52" t="n">
-        <v>75.06179789223656</v>
+        <v>75.0617978922364</v>
       </c>
     </row>
     <row r="53">
@@ -2029,10 +2029,10 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>154.6869827854617</v>
+        <v>154.6869827854613</v>
       </c>
       <c r="H53" t="n">
-        <v>72.40418843876488</v>
+        <v>72.40418843876456</v>
       </c>
     </row>
     <row r="54">
@@ -2059,10 +2059,10 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>135.0283199673409</v>
+        <v>135.0283199673411</v>
       </c>
       <c r="H54" t="n">
-        <v>69.10367914732444</v>
+        <v>69.10367914732458</v>
       </c>
     </row>
     <row r="55">
@@ -2145,10 +2145,10 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>141.3563239365029</v>
+        <v>141.3563239365028</v>
       </c>
       <c r="H57" t="n">
-        <v>82.15025922521988</v>
+        <v>82.15025922521974</v>
       </c>
     </row>
     <row r="58">
@@ -2175,10 +2175,10 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>174.4741395506572</v>
+        <v>174.474139550657</v>
       </c>
       <c r="H58" t="n">
-        <v>74.88753981122423</v>
+        <v>74.88753981122407</v>
       </c>
     </row>
     <row r="59">
@@ -2205,10 +2205,10 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>154.817589609035</v>
+        <v>154.8175896090347</v>
       </c>
       <c r="H59" t="n">
-        <v>72.18503125656264</v>
+        <v>72.18503125656233</v>
       </c>
     </row>
     <row r="60">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>135.067342119444</v>
+        <v>135.0673421194441</v>
       </c>
       <c r="H60" t="n">
-        <v>69.10835605327526</v>
+        <v>69.10835605327541</v>
       </c>
     </row>
     <row r="61">
@@ -2325,10 +2325,10 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>132.8176039038526</v>
+        <v>132.8176039038525</v>
       </c>
       <c r="H63" t="n">
-        <v>54.85831479477616</v>
+        <v>54.85831479477601</v>
       </c>
     </row>
     <row r="64">
@@ -2355,10 +2355,10 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>139.7137710278824</v>
+        <v>139.7137710278823</v>
       </c>
       <c r="H64" t="n">
-        <v>51.50542171009656</v>
+        <v>51.50542171009641</v>
       </c>
     </row>
     <row r="65">
@@ -2385,10 +2385,10 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>109.8262597332989</v>
+        <v>109.8262597332985</v>
       </c>
       <c r="H65" t="n">
-        <v>55.72162563148218</v>
+        <v>55.7216256314819</v>
       </c>
     </row>
     <row r="66">
@@ -2415,10 +2415,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>97.75788028815715</v>
+        <v>97.75788028815731</v>
       </c>
       <c r="H66" t="n">
-        <v>51.67051744563951</v>
+        <v>51.67051744563967</v>
       </c>
     </row>
     <row r="67">
@@ -2505,10 +2505,10 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>140.1328496391832</v>
+        <v>140.132849639183</v>
       </c>
       <c r="H69" t="n">
-        <v>51.34991486297771</v>
+        <v>51.34991486297756</v>
       </c>
     </row>
     <row r="70">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>140.0818983538088</v>
+        <v>140.0818983538087</v>
       </c>
       <c r="H70" t="n">
-        <v>51.39378002938912</v>
+        <v>51.39378002938897</v>
       </c>
     </row>
     <row r="71">
@@ -2565,10 +2565,10 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>119.630261211607</v>
+        <v>119.6302612116067</v>
       </c>
       <c r="H71" t="n">
-        <v>49.44074338639088</v>
+        <v>49.44074338639058</v>
       </c>
     </row>
     <row r="72">
@@ -2595,10 +2595,10 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>99.87629849355901</v>
+        <v>99.87629849355918</v>
       </c>
       <c r="H72" t="n">
-        <v>47.10314832756481</v>
+        <v>47.10314832756496</v>
       </c>
     </row>
     <row r="73">
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>125.7546209877091</v>
+        <v>125.7546209877094</v>
       </c>
       <c r="H74" t="n">
-        <v>66.29184395668916</v>
+        <v>66.29184395668946</v>
       </c>
     </row>
     <row r="75">
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>89.0613687796677</v>
+        <v>89.06136877966787</v>
       </c>
       <c r="H75" t="n">
-        <v>48.14512308574974</v>
+        <v>48.14512308574989</v>
       </c>
     </row>
     <row r="76">
@@ -2715,10 +2715,10 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>129.647013039544</v>
+        <v>129.6470130395437</v>
       </c>
       <c r="H76" t="n">
-        <v>50.5019984033528</v>
+        <v>50.5019984033524</v>
       </c>
     </row>
     <row r="77">
@@ -2745,10 +2745,10 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>110.0079214762111</v>
+        <v>110.0079214762114</v>
       </c>
       <c r="H77" t="n">
-        <v>48.03694055800606</v>
+        <v>48.03694055800636</v>
       </c>
     </row>
     <row r="78">
@@ -2775,10 +2775,10 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>154.7661968153594</v>
+        <v>154.7661968153591</v>
       </c>
       <c r="H78" t="n">
-        <v>72.26355516135328</v>
+        <v>72.26355516135297</v>
       </c>
     </row>
     <row r="79">
@@ -2805,10 +2805,10 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>129.4900098075086</v>
+        <v>129.4900098075084</v>
       </c>
       <c r="H79" t="n">
-        <v>68.60641856346658</v>
+        <v>68.60641856346642</v>
       </c>
     </row>
     <row r="80">
@@ -2835,10 +2835,10 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>144.2543189808855</v>
+        <v>144.2543189808858</v>
       </c>
       <c r="H80" t="n">
-        <v>70.79618595789906</v>
+        <v>70.79618595789935</v>
       </c>
     </row>
     <row r="81">
@@ -2865,10 +2865,10 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>139.7773789234581</v>
+        <v>139.7773789234579</v>
       </c>
       <c r="H81" t="n">
-        <v>70.1315056364917</v>
+        <v>70.13150563649154</v>
       </c>
     </row>
     <row r="82">
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>85.5424999117354</v>
+        <v>85.54249991173558</v>
       </c>
       <c r="H82" t="n">
-        <v>53.52420877560208</v>
+        <v>53.52420877560225</v>
       </c>
     </row>
     <row r="83">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>106.0760168883417</v>
+        <v>106.0760168883418</v>
       </c>
       <c r="H83" t="n">
-        <v>64.05096217368821</v>
+        <v>64.05096217368836</v>
       </c>
     </row>
     <row r="84">
@@ -2985,10 +2985,10 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>129.3068730317208</v>
+        <v>129.3068730317205</v>
       </c>
       <c r="H85" t="n">
-        <v>55.78936126791124</v>
+        <v>55.78936126791086</v>
       </c>
     </row>
     <row r="86">
@@ -3015,10 +3015,10 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>144.927621831931</v>
+        <v>144.9276218319314</v>
       </c>
       <c r="H86" t="n">
-        <v>70.57297309073677</v>
+        <v>70.57297309073708</v>
       </c>
     </row>
     <row r="87">
@@ -3075,10 +3075,10 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>115.5848725387862</v>
+        <v>115.5848725387858</v>
       </c>
       <c r="H88" t="n">
-        <v>51.32980883931139</v>
+        <v>51.3298088393111</v>
       </c>
     </row>
     <row r="89">
@@ -3135,10 +3135,10 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>124.2097400247109</v>
+        <v>124.2097400247111</v>
       </c>
       <c r="H90" t="n">
-        <v>68.02722010576217</v>
+        <v>68.02722010576232</v>
       </c>
     </row>
     <row r="91">
@@ -3165,10 +3165,10 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>164.4761108287034</v>
+        <v>164.4761108287031</v>
       </c>
       <c r="H91" t="n">
-        <v>73.88176475930774</v>
+        <v>73.88176475930736</v>
       </c>
     </row>
     <row r="92">
@@ -3195,10 +3195,10 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>97.52575269565247</v>
+        <v>97.52575269565264</v>
       </c>
       <c r="H92" t="n">
-        <v>52.46007986531043</v>
+        <v>52.46007986531059</v>
       </c>
     </row>
     <row r="93">
@@ -3225,10 +3225,10 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>105.0025292672384</v>
+        <v>105.0025292672383</v>
       </c>
       <c r="H93" t="n">
-        <v>47.44948086933852</v>
+        <v>47.44948086933837</v>
       </c>
     </row>
     <row r="94">
@@ -3255,10 +3255,10 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>93.09573159498402</v>
+        <v>93.09573159498386</v>
       </c>
       <c r="H94" t="n">
-        <v>50.43836778369966</v>
+        <v>50.4383677836995</v>
       </c>
     </row>
     <row r="95">
@@ -3285,10 +3285,10 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>130.2256233946057</v>
+        <v>130.2256233946054</v>
       </c>
       <c r="H95" t="n">
-        <v>50.10323959789492</v>
+        <v>50.10323959789454</v>
       </c>
     </row>
     <row r="96">
@@ -3315,10 +3315,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>109.6468329916383</v>
+        <v>109.6468329916387</v>
       </c>
       <c r="H96" t="n">
-        <v>48.33559286943328</v>
+        <v>48.33559286943358</v>
       </c>
     </row>
     <row r="97">
@@ -3345,10 +3345,10 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>79.22062354089124</v>
+        <v>79.22062354089138</v>
       </c>
       <c r="H97" t="n">
-        <v>62.3968663516012</v>
+        <v>62.39686635160137</v>
       </c>
     </row>
     <row r="98">
@@ -3405,10 +3405,10 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>130.1500776622327</v>
+        <v>130.1500776622325</v>
       </c>
       <c r="H99" t="n">
-        <v>50.28231755899851</v>
+        <v>50.28231755899813</v>
       </c>
     </row>
     <row r="100">
@@ -3435,10 +3435,10 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>109.337518439965</v>
+        <v>109.3375184399653</v>
       </c>
       <c r="H100" t="n">
-        <v>48.41874492059383</v>
+        <v>48.41874492059413</v>
       </c>
     </row>
     <row r="101">
